--- a/public/assets/file_excel/anggota/1/GKI Ayudia DBAJ (imported).xlsx
+++ b/public/assets/file_excel/anggota/1/GKI Ayudia DBAJ (imported).xlsx
@@ -3075,8 +3075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="AE4" sqref="AE4"/>
+    <sheetView tabSelected="1" topLeftCell="G102" workbookViewId="0">
+      <selection activeCell="Q107" sqref="Q107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3093,6 +3093,7 @@
     <col min="17" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3187,7 +3188,7 @@
       </c>
       <c r="T3" s="25">
         <f ca="1">NOW()</f>
-        <v>42053.535711921293</v>
+        <v>42082.491328472221</v>
       </c>
       <c r="U3" s="26"/>
       <c r="V3" s="27"/>
@@ -4744,7 +4745,7 @@
         <v>50</v>
       </c>
       <c r="T24" s="66">
-        <v>45693</v>
+        <v>9168</v>
       </c>
       <c r="U24" s="84"/>
       <c r="V24" s="84">
@@ -5820,7 +5821,7 @@
         <v>50</v>
       </c>
       <c r="T38" s="66">
-        <v>44119</v>
+        <v>7594</v>
       </c>
       <c r="U38" s="67"/>
       <c r="V38" s="67">
